--- a/Data_science_outputs/1500pop/output_results/output_analysis_4.xlsx
+++ b/Data_science_outputs/1500pop/output_results/output_analysis_4.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58378.62654790245</v>
+        <v>44694.22931324432</v>
       </c>
       <c r="C3" t="n">
         <v>34290.49506408698</v>
       </c>
       <c r="D3" t="n">
-        <v>12906.21193516789</v>
+        <v>2566.918741907607</v>
       </c>
       <c r="E3" t="n">
-        <v>11344.30055009394</v>
+        <v>7690.107310439931</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19285.48378734624</v>
+        <v>19601.22630524735</v>
       </c>
       <c r="C4" t="n">
         <v>17294.41997485348</v>
       </c>
       <c r="D4" t="n">
-        <v>11307.00363297504</v>
+        <v>1628.405738598885</v>
       </c>
       <c r="E4" t="n">
-        <v>8301.58355548313</v>
+        <v>4840.31801441372</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10742.05600000001</v>
+        <v>9627.057000000004</v>
       </c>
       <c r="C5" t="n">
         <v>7843.019000000001</v>
@@ -544,7 +544,7 @@
         <v>5.001</v>
       </c>
       <c r="E5" t="n">
-        <v>668.0100000000001</v>
+        <v>499.007</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45851.84800000001</v>
+        <v>28557.03475000001</v>
       </c>
       <c r="C6" t="n">
         <v>21014.264</v>
       </c>
       <c r="D6" t="n">
-        <v>1156.009</v>
+        <v>1039.005</v>
       </c>
       <c r="E6" t="n">
-        <v>4493.02475</v>
+        <v>3901.009</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54948.08050000001</v>
+        <v>40574.07950000001</v>
       </c>
       <c r="C7" t="n">
         <v>28630.001</v>
       </c>
       <c r="D7" t="n">
-        <v>12077</v>
+        <v>2578.003</v>
       </c>
       <c r="E7" t="n">
-        <v>9101.0425</v>
+        <v>6699.050499999999</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75067.08349999989</v>
+        <v>59766.07774999995</v>
       </c>
       <c r="C8" t="n">
         <v>46997.66174999965</v>
       </c>
       <c r="D8" t="n">
-        <v>24858.003</v>
+        <v>3945.003</v>
       </c>
       <c r="E8" t="n">
-        <v>15803.295</v>
+        <v>9775.017</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122819.0859999999</v>
+        <v>107856.6529999995</v>
       </c>
       <c r="C9" t="n">
         <v>73041.67199999939</v>
       </c>
       <c r="D9" t="n">
-        <v>33606</v>
+        <v>12493.002</v>
       </c>
       <c r="E9" t="n">
-        <v>60500.013</v>
+        <v>41290.01499999999</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>30683806113.58495</v>
+        <v>23491286927.04395</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>345648190.2459991</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5845994686881495</v>
+        <v>0.7705067027678848</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>6783504993.121998</v>
+        <v>1349172490.746</v>
       </c>
       <c r="G12" t="n">
-        <v>0.221077690558039</v>
+        <v>0.05743288968952941</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>5962564369.131</v>
+        <v>4041920402.366999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1943228407538116</v>
+        <v>0.1720604075425858</v>
       </c>
     </row>
   </sheetData>
